--- a/test_data/3SL/Geo2.xlsx
+++ b/test_data/3SL/Geo2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://treteknisk-my.sharepoint.com/personal/dpa_treteknisk_no/Documents/Dokumenter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://treteknisk-my.sharepoint.com/personal/dpa_treteknisk_no/Documents/Dokumenter/Dev/pyOMA2/src/pyoma2/test_data/3SL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{475B37BA-43BC-4ACE-A33F-1C8E4CB919AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="11_AD4D5CB4E552A5DACE1C6441785E53185BDEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F87DFC7D-A63B-4385-88B4-8F026290C68E}"/>
   <bookViews>
-    <workbookView xWindow="33090" yWindow="3195" windowWidth="21600" windowHeight="12645" tabRatio="775" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="775" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>x</t>
   </si>
@@ -73,47 +73,128 @@
     <t>chann. 5</t>
   </si>
   <si>
-    <t>ch1</t>
-  </si>
-  <si>
-    <t>ch2</t>
-  </si>
-  <si>
-    <t>ch3</t>
-  </si>
-  <si>
-    <t>ch5</t>
-  </si>
-  <si>
-    <t>ch4</t>
+    <t>chann. 6</t>
+  </si>
+  <si>
+    <t>chann. 7</t>
+  </si>
+  <si>
+    <t>chann. 8</t>
+  </si>
+  <si>
+    <t>chann. 9</t>
+  </si>
+  <si>
+    <t>chann. 10</t>
+  </si>
+  <si>
+    <t>ch1_1</t>
+  </si>
+  <si>
+    <t>ch2_1</t>
+  </si>
+  <si>
+    <t>ch3_1</t>
+  </si>
+  <si>
+    <t>ch4_1</t>
+  </si>
+  <si>
+    <t>ch5_1</t>
+  </si>
+  <si>
+    <t>ch6_1</t>
+  </si>
+  <si>
+    <t>ch7_1</t>
+  </si>
+  <si>
+    <t>ch8_1</t>
+  </si>
+  <si>
+    <t>ch9_1</t>
+  </si>
+  <si>
+    <t>ch10_1</t>
+  </si>
+  <si>
+    <t>ch4_2</t>
+  </si>
+  <si>
+    <t>ch5_2</t>
+  </si>
+  <si>
+    <t>ch6_2</t>
+  </si>
+  <si>
+    <t>ch7_2</t>
+  </si>
+  <si>
+    <t>ch8_2</t>
+  </si>
+  <si>
+    <t>ch9_2</t>
+  </si>
+  <si>
+    <t>ch10_2</t>
+  </si>
+  <si>
+    <t>ch4_3</t>
+  </si>
+  <si>
+    <t>ch5_3</t>
+  </si>
+  <si>
+    <t>ch6_3</t>
+  </si>
+  <si>
+    <t>ch7_3</t>
+  </si>
+  <si>
+    <t>ch8_3</t>
+  </si>
+  <si>
+    <t>ch9_3</t>
+  </si>
+  <si>
+    <t>ch10_3</t>
   </si>
   <si>
     <t>ptName</t>
   </si>
   <si>
-    <t>chann. 6</t>
-  </si>
-  <si>
-    <t>ch6</t>
-  </si>
-  <si>
-    <t>lab</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>k</t>
+    <t>ch1_2</t>
+  </si>
+  <si>
+    <t>ch2_2</t>
+  </si>
+  <si>
+    <t>ch3_2</t>
+  </si>
+  <si>
+    <t>ch1_3</t>
+  </si>
+  <si>
+    <t>ch2_3</t>
+  </si>
+  <si>
+    <t>ch3_3</t>
+  </si>
+  <si>
+    <t>REF1</t>
+  </si>
+  <si>
+    <t>REF2</t>
+  </si>
+  <si>
+    <t>REF3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,12 +206,6 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,9 +240,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -451,7 +523,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,10 +534,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613D694E-A452-47DC-802C-1447C209AC7A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -500,10 +572,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -511,10 +583,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -522,10 +594,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,10 +605,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -544,10 +616,704 @@
         <v>6</v>
       </c>
       <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="C8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>22</v>
+      </c>
+      <c r="C40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>26</v>
+      </c>
+      <c r="C43">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>27</v>
+      </c>
+      <c r="C44">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>29</v>
+      </c>
+      <c r="C45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>31</v>
+      </c>
+      <c r="C46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>32</v>
+      </c>
+      <c r="C47">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>33</v>
+      </c>
+      <c r="C48">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>37</v>
+      </c>
+      <c r="C51">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>39</v>
+      </c>
+      <c r="C52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>17</v>
+      </c>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>17</v>
+      </c>
+      <c r="C56">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>21</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>22</v>
+      </c>
+      <c r="C60">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>23</v>
+      </c>
+      <c r="C61">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>27</v>
+      </c>
+      <c r="C62">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>24</v>
+      </c>
+      <c r="C63">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>28</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>31</v>
+      </c>
+      <c r="C65">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>32</v>
+      </c>
+      <c r="C66">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>33</v>
+      </c>
+      <c r="C67">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>37</v>
+      </c>
+      <c r="C68">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>34</v>
+      </c>
+      <c r="C69">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>38</v>
+      </c>
+      <c r="C70">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -557,140 +1323,27 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5482AEB-1D8E-486C-90C8-0466A2CBFF04}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+      <selection activeCell="B2" sqref="B2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +1352,7 @@
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -719,44 +1372,187 @@
         <v>11</v>
       </c>
       <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A15A84-EA7B-425C-9E23-D6961CCE0DF3}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D9" sqref="D6:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,100 +1562,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>3.5</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>3.5</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>3.5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>8.5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>3.5</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>3.5</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>3.5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>8.5</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>3.5</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>3.5</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C3" s="2">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>3.5</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>8.5</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C14">
+        <v>3.5</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>3.5</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>3.5</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>8.5</v>
+      </c>
+      <c r="D17">
         <v>0</v>
       </c>
     </row>
@@ -870,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDBCE1F-47DB-4811-BB35-0E0205CD2B40}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,106 +1818,370 @@
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I9" s="4"/>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -993,7 +2193,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="A1:XFD1048576"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,22 +2222,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBF5B3D-3A11-4C28-94A1-B7B5E400A817}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1049,10 +2249,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1063,10 +2263,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1077,7 +2277,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1091,10 +2291,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1105,10 +2305,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1119,12 +2319,152 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>0</v>
       </c>
     </row>
@@ -1135,10 +2475,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E463A6-41F0-48AE-B2BB-6AE6647E27F5}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1173,10 +2513,10 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1184,10 +2524,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1195,7 +2535,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1209,7 +2549,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1217,10 +2557,175 @@
         <v>6</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>1</v>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1230,10 +2735,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DD1E11-1E90-4EE3-810D-F743A05FD643}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D8"/>
+      <selection activeCell="J25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1241,118 +2746,6 @@
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-    </row>
     <row r="28" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M28" s="3"/>
     </row>
@@ -1363,10 +2756,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0B82C5-87A3-4E85-BE52-E77C4AA3DDDF}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,15 +2770,15 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1393,55 +2786,55 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>20</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>20</v>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>20</v>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
@@ -1449,13 +2842,13 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5.5</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
@@ -1463,14 +2856,490 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>5.5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>5.5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>5.5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>5.5</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>5.5</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>5.5</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>5.5</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>5.5</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>5.5</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>5.5</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>5.5</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>5.5</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>5.5</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>5.5</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>5.5</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
